--- a/swicth.xlsx
+++ b/swicth.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tang.ling\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ssm\workspace\xaustGX-gx-oa\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -291,7 +291,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -313,6 +313,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -331,8 +334,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -621,7 +630,7 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.25" style="1" customWidth="1"/>
     <col min="4" max="8" width="5.25" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.125" style="1" bestFit="1" customWidth="1"/>
@@ -632,34 +641,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-    </row>
-    <row r="3" spans="2:18" ht="27" x14ac:dyDescent="0.15">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+    </row>
+    <row r="3" spans="2:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
       <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
@@ -704,7 +713,7 @@
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B4" s="2">
+      <c r="B4" s="14">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -732,7 +741,7 @@
       <c r="Q4" s="2"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B5" s="2">
+      <c r="B5" s="14">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -762,7 +771,7 @@
       <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B6" s="2">
+      <c r="B6" s="14">
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -798,7 +807,7 @@
       <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B7" s="2">
+      <c r="B7" s="14">
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -822,7 +831,7 @@
       <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B8" s="2">
+      <c r="B8" s="14">
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -846,7 +855,7 @@
       <c r="Q8" s="2"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B9" s="2">
+      <c r="B9" s="14">
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -874,7 +883,7 @@
       <c r="Q9" s="2"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B10" s="2">
+      <c r="B10" s="14">
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -908,7 +917,7 @@
       <c r="Q10" s="2"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B11" s="2">
+      <c r="B11" s="14">
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -944,7 +953,7 @@
       <c r="Q11" s="2"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B12" s="2">
+      <c r="B12" s="14">
         <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1025,7 +1034,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="Q13" s="13">
+      <c r="Q13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1034,7 +1043,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="16"/>
+    </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.15">
       <c r="C15" s="2" t="s">
         <v>27</v>
@@ -1157,6 +1168,6 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/swicth.xlsx
+++ b/swicth.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>开关</t>
     <phoneticPr fontId="2"/>
@@ -151,6 +151,10 @@
   </si>
   <si>
     <t>总价</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>总数</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -162,7 +166,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,7 +179,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="SimSun"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="6"/>
@@ -183,6 +186,12 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -291,7 +300,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -316,6 +325,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -334,13 +352,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -625,50 +637,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.25" style="1" customWidth="1"/>
     <col min="4" max="8" width="5.25" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.25" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="15" width="5.25" style="1" customWidth="1"/>
     <col min="16" max="17" width="5.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="1"/>
+    <col min="18" max="18" width="6.625" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
     </row>
     <row r="3" spans="2:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
       <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
@@ -711,9 +726,12 @@
       <c r="Q3" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="R3" s="17" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B4" s="14">
+      <c r="B4" s="8">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -739,9 +757,13 @@
         <v>1</v>
       </c>
       <c r="Q4" s="2"/>
+      <c r="R4" s="2">
+        <f>SUM(D4:Q4)</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B5" s="14">
+      <c r="B5" s="8">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -769,9 +791,13 @@
         <v>2</v>
       </c>
       <c r="Q5" s="2"/>
+      <c r="R5" s="2">
+        <f t="shared" ref="R5:R12" si="0">SUM(D5:Q5)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B6" s="14">
+      <c r="B6" s="8">
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -805,9 +831,13 @@
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
+      <c r="R6" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B7" s="14">
+      <c r="B7" s="8">
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -829,9 +859,13 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
+      <c r="R7" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B8" s="14">
+      <c r="B8" s="8">
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -853,9 +887,13 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
+      <c r="R8" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B9" s="14">
+      <c r="B9" s="8">
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -881,9 +919,13 @@
         <v>1</v>
       </c>
       <c r="Q9" s="2"/>
+      <c r="R9" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B10" s="14">
+      <c r="B10" s="8">
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -915,9 +957,13 @@
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
+      <c r="R10" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B11" s="14">
+      <c r="B11" s="8">
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -951,9 +997,13 @@
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
+      <c r="R11" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B12" s="14">
+      <c r="B12" s="8">
         <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -977,65 +1027,69 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
+      <c r="R12" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.15">
       <c r="C13" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" ref="D13:Q13" si="0">SUM(D4:D12)</f>
+        <f t="shared" ref="D13:Q13" si="1">SUM(D4:D12)</f>
         <v>4</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="I13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="J13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="K13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="L13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="O13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="P13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="Q13" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R13" s="2">
@@ -1044,7 +1098,7 @@
       </c>
     </row>
     <row r="14" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="16"/>
+      <c r="B14" s="10"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.15">
       <c r="C15" s="2" t="s">
@@ -1103,55 +1157,55 @@
         <v>40</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" ref="E16:Q16" si="1">E13*E15</f>
+        <f t="shared" ref="E16:Q16" si="2">E13*E15</f>
         <v>30</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="G16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="H16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="I16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="J16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="K16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>135</v>
       </c>
       <c r="L16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="M16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="N16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="O16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>240</v>
       </c>
       <c r="P16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="Q16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R16" s="2">

--- a/swicth.xlsx
+++ b/swicth.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ssm\workspace\xaustGX-gx-oa\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12270"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>开关</t>
     <phoneticPr fontId="2"/>
@@ -159,18 +154,31 @@
   </si>
   <si>
     <t>总数</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>淘宝 远景</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>淘宝 悦动</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>报警
+器</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -179,10 +187,11 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="SimSun"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -334,6 +343,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -352,12 +364,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -415,7 +424,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -450,7 +459,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -627,63 +636,59 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:R16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:S27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+      <selection activeCell="I5" sqref="I5:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.5" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.25" style="1" customWidth="1"/>
-    <col min="4" max="8" width="5.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="5.25" style="1" customWidth="1"/>
-    <col min="16" max="17" width="5.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.625" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="1"/>
+    <col min="4" max="19" width="6.75" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="15" t="s">
+    <row r="2" spans="2:19" ht="13.5" customHeight="1">
+      <c r="B2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-    </row>
-    <row r="3" spans="2:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+    </row>
+    <row r="3" spans="2:19" ht="33.75" customHeight="1">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
@@ -724,13 +729,16 @@
         <v>26</v>
       </c>
       <c r="Q3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="17" t="s">
+      <c r="S3" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:19">
       <c r="B4" s="8">
         <v>1</v>
       </c>
@@ -757,12 +765,13 @@
         <v>1</v>
       </c>
       <c r="Q4" s="2"/>
-      <c r="R4" s="2">
-        <f>SUM(D4:Q4)</f>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2">
+        <f>SUM(D4:R4)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:19">
       <c r="B5" s="8">
         <v>2</v>
       </c>
@@ -775,13 +784,11 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2">
-        <v>1</v>
-      </c>
-      <c r="J5" s="2">
-        <v>1</v>
-      </c>
+      <c r="H5" s="2">
+        <v>2</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -791,12 +798,13 @@
         <v>2</v>
       </c>
       <c r="Q5" s="2"/>
-      <c r="R5" s="2">
-        <f t="shared" ref="R5:R12" si="0">SUM(D5:Q5)</f>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2">
+        <f t="shared" ref="S5:S12" si="0">SUM(D5:R5)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:19">
       <c r="B6" s="8">
         <v>3</v>
       </c>
@@ -810,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
@@ -823,20 +831,19 @@
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
-      <c r="N6" s="2">
-        <v>1</v>
-      </c>
+      <c r="N6" s="2"/>
       <c r="O6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
-      <c r="R6" s="2">
+      <c r="R6" s="2"/>
+      <c r="S6" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19">
       <c r="B7" s="8">
         <v>4</v>
       </c>
@@ -859,12 +866,13 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
-      <c r="R7" s="2">
+      <c r="R7" s="2"/>
+      <c r="S7" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:19">
       <c r="B8" s="8">
         <v>5</v>
       </c>
@@ -887,12 +895,13 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
-      <c r="R8" s="2">
+      <c r="R8" s="2"/>
+      <c r="S8" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:19">
       <c r="B9" s="8">
         <v>6</v>
       </c>
@@ -919,12 +928,13 @@
         <v>1</v>
       </c>
       <c r="Q9" s="2"/>
-      <c r="R9" s="2">
+      <c r="R9" s="2"/>
+      <c r="S9" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:19">
       <c r="B10" s="8">
         <v>7</v>
       </c>
@@ -938,7 +948,7 @@
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I10" s="2">
         <v>1</v>
@@ -956,13 +966,16 @@
         <v>1</v>
       </c>
       <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2">
+      <c r="Q10" s="2">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19">
       <c r="B11" s="8">
         <v>8</v>
       </c>
@@ -976,20 +989,18 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2">
         <v>1</v>
       </c>
-      <c r="K11" s="5">
-        <v>1</v>
-      </c>
+      <c r="K11" s="5"/>
       <c r="L11" s="5">
         <v>1</v>
       </c>
       <c r="M11" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2">
@@ -997,12 +1008,13 @@
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
-      <c r="R11" s="2">
+      <c r="R11" s="2"/>
+      <c r="S11" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19">
       <c r="B12" s="8">
         <v>9</v>
       </c>
@@ -1027,17 +1039,18 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
-      <c r="R12" s="2">
+      <c r="R12" s="2"/>
+      <c r="S12" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:19">
       <c r="C13" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" ref="D13:Q13" si="1">SUM(D4:D12)</f>
+        <f t="shared" ref="D13:R13" si="1">SUM(D4:D12)</f>
         <v>4</v>
       </c>
       <c r="E13" s="2">
@@ -1054,19 +1067,19 @@
       </c>
       <c r="H13" s="2">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I13" s="2">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13" s="2">
         <f t="shared" si="1"/>
@@ -1074,33 +1087,37 @@
       </c>
       <c r="M13" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N13" s="2">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O13" s="2">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P13" s="2">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="Q13" s="7">
+        <f t="shared" ref="Q13" si="2">SUM(Q4:Q12)</f>
+        <v>1</v>
+      </c>
+      <c r="R13" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R13" s="2">
-        <f>SUM(D13:Q13)</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="S13" s="2">
+        <f>SUM(D13:R13)</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" s="6" customFormat="1">
       <c r="B14" s="10"/>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:19">
       <c r="C15" s="2" t="s">
         <v>27</v>
       </c>
@@ -1146,9 +1163,12 @@
       <c r="Q15" s="2">
         <v>10</v>
       </c>
-      <c r="R15" s="2"/>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="R15" s="2">
+        <v>10</v>
+      </c>
+      <c r="S15" s="2"/>
+    </row>
+    <row r="16" spans="2:19">
       <c r="C16" s="2" t="s">
         <v>28</v>
       </c>
@@ -1157,65 +1177,509 @@
         <v>40</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" ref="E16:Q16" si="2">E13*E15</f>
+        <f t="shared" ref="E16:R16" si="3">E13*E15</f>
         <v>30</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="G16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="H16" s="2">
-        <f t="shared" si="2"/>
-        <v>140</v>
+        <f t="shared" si="3"/>
+        <v>230</v>
       </c>
       <c r="I16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="K16" s="2">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="L16" s="2">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="M16" s="2">
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="J16" s="2">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="K16" s="2">
-        <f t="shared" si="2"/>
-        <v>135</v>
-      </c>
-      <c r="L16" s="2">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="M16" s="2">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
       <c r="N16" s="2">
-        <f t="shared" si="2"/>
-        <v>90</v>
+        <f t="shared" si="3"/>
+        <v>45</v>
       </c>
       <c r="O16" s="2">
-        <f t="shared" si="2"/>
-        <v>240</v>
+        <f t="shared" si="3"/>
+        <v>300</v>
       </c>
       <c r="P16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="Q16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="Q16" si="4">Q13*Q15</f>
+        <v>10</v>
+      </c>
+      <c r="R16" s="2">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R16" s="2">
-        <f>SUM(D16:Q16)</f>
-        <v>981</v>
+      <c r="S16" s="2">
+        <f>SUM(D16:R16)</f>
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19">
+      <c r="C18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="1">
+        <v>11.88</v>
+      </c>
+      <c r="E18" s="1">
+        <v>16.63</v>
+      </c>
+      <c r="F18" s="1">
+        <v>14.75</v>
+      </c>
+      <c r="G18" s="1">
+        <v>30.29</v>
+      </c>
+      <c r="H18" s="1">
+        <v>11</v>
+      </c>
+      <c r="I18" s="1">
+        <v>21.6</v>
+      </c>
+      <c r="J18" s="1">
+        <v>24.21</v>
+      </c>
+      <c r="K18" s="1">
+        <v>65.48</v>
+      </c>
+      <c r="L18" s="1">
+        <v>18.86</v>
+      </c>
+      <c r="M18" s="1">
+        <v>39.5</v>
+      </c>
+      <c r="P18" s="1">
+        <v>14.36</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>51.58</v>
+      </c>
+      <c r="R18" s="1">
+        <v>6.88</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19">
+      <c r="D19" s="1">
+        <v>9.08</v>
+      </c>
+      <c r="E19" s="1">
+        <v>12.71</v>
+      </c>
+      <c r="F19" s="1">
+        <v>11.26</v>
+      </c>
+      <c r="G19" s="1">
+        <v>23.62</v>
+      </c>
+      <c r="H19" s="1">
+        <v>8.67</v>
+      </c>
+      <c r="I19" s="1">
+        <v>16.510000000000002</v>
+      </c>
+      <c r="J19" s="1">
+        <v>18.88</v>
+      </c>
+      <c r="K19" s="1">
+        <v>50.08</v>
+      </c>
+      <c r="L19" s="1">
+        <v>14.41</v>
+      </c>
+      <c r="M19" s="1">
+        <v>30.21</v>
+      </c>
+      <c r="P19" s="1">
+        <v>11.48</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>40.229999999999997</v>
+      </c>
+      <c r="R19" s="1">
+        <v>5.36</v>
+      </c>
+    </row>
+    <row r="20" spans="3:19">
+      <c r="D20" s="1">
+        <f>D13*D18</f>
+        <v>47.52</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" ref="E20:R20" si="5">E13*E18</f>
+        <v>33.26</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="5"/>
+        <v>29.5</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="5"/>
+        <v>30.29</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="5"/>
+        <v>253</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="5"/>
+        <v>43.2</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="5"/>
+        <v>72.63</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" si="5"/>
+        <v>130.96</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" si="5"/>
+        <v>18.86</v>
+      </c>
+      <c r="M20" s="1">
+        <f>M13*M18</f>
+        <v>79</v>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="1">
+        <f t="shared" si="5"/>
+        <v>57.44</v>
+      </c>
+      <c r="Q20" s="1">
+        <f>Q13*Q18</f>
+        <v>51.58</v>
+      </c>
+      <c r="R20" s="1">
+        <f>R13*R18</f>
+        <v>0</v>
+      </c>
+      <c r="S20" s="2">
+        <f>SUM(D20:R20)</f>
+        <v>847.24000000000012</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19">
+      <c r="D21" s="1">
+        <f>D13*D19</f>
+        <v>36.32</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" ref="E21:R21" si="6">E13*E19</f>
+        <v>25.42</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="6"/>
+        <v>22.52</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="6"/>
+        <v>23.62</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="6"/>
+        <v>199.41</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="6"/>
+        <v>33.020000000000003</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="6"/>
+        <v>56.64</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" si="6"/>
+        <v>100.16</v>
+      </c>
+      <c r="L21" s="1">
+        <f t="shared" si="6"/>
+        <v>14.41</v>
+      </c>
+      <c r="M21" s="1">
+        <f t="shared" si="6"/>
+        <v>60.42</v>
+      </c>
+      <c r="N21" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="1">
+        <f t="shared" si="6"/>
+        <v>45.92</v>
+      </c>
+      <c r="Q21" s="1">
+        <f t="shared" ref="Q21" si="7">Q13*Q19</f>
+        <v>40.229999999999997</v>
+      </c>
+      <c r="R21" s="1">
+        <f>R13*R19</f>
+        <v>0</v>
+      </c>
+      <c r="S21" s="2">
+        <f>SUM(D21:R21)</f>
+        <v>658.09</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19">
+      <c r="S22" s="1">
+        <f>S20-S21</f>
+        <v>189.15000000000009</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19">
+      <c r="C23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="1">
+        <v>15</v>
+      </c>
+      <c r="E23" s="1">
+        <v>20.8</v>
+      </c>
+      <c r="F23" s="1">
+        <v>17.7</v>
+      </c>
+      <c r="G23" s="1">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="H23" s="1">
+        <v>13.9</v>
+      </c>
+      <c r="I23" s="1">
+        <v>22.8</v>
+      </c>
+      <c r="J23" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="K23" s="1">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="L23" s="1">
+        <v>22.5</v>
+      </c>
+      <c r="M23" s="1">
+        <v>42.1</v>
+      </c>
+      <c r="P23" s="1">
+        <v>14.36</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>51.58</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19">
+      <c r="D24" s="1">
+        <v>11.47</v>
+      </c>
+      <c r="E24" s="1">
+        <v>15.91</v>
+      </c>
+      <c r="F24" s="1">
+        <v>13.54</v>
+      </c>
+      <c r="G24" s="1">
+        <v>29.87</v>
+      </c>
+      <c r="H24" s="1">
+        <v>11.25</v>
+      </c>
+      <c r="I24" s="1">
+        <v>17.440000000000001</v>
+      </c>
+      <c r="J24" s="1">
+        <v>21.45</v>
+      </c>
+      <c r="K24" s="1">
+        <v>53.47</v>
+      </c>
+      <c r="L24" s="1">
+        <v>17.21</v>
+      </c>
+      <c r="M24" s="1">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="P24" s="1">
+        <v>11.48</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>40.229999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19">
+      <c r="D25" s="1">
+        <f>D13*D23</f>
+        <v>60</v>
+      </c>
+      <c r="E25" s="1">
+        <f>E13*E23</f>
+        <v>41.6</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" ref="D25:L25" si="8">F13*F23</f>
+        <v>35.4</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="8"/>
+        <v>38.299999999999997</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="8"/>
+        <v>319.7</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="8"/>
+        <v>45.6</v>
+      </c>
+      <c r="J25" s="1">
+        <f t="shared" si="8"/>
+        <v>82.5</v>
+      </c>
+      <c r="K25" s="1">
+        <f t="shared" si="8"/>
+        <v>139.80000000000001</v>
+      </c>
+      <c r="L25" s="1">
+        <f t="shared" si="8"/>
+        <v>22.5</v>
+      </c>
+      <c r="M25" s="1">
+        <f>M13*M23</f>
+        <v>84.2</v>
+      </c>
+      <c r="N25" s="1">
+        <f t="shared" ref="N25:Q25" si="9">N13*N23</f>
+        <v>0</v>
+      </c>
+      <c r="O25" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="1">
+        <f t="shared" si="9"/>
+        <v>57.44</v>
+      </c>
+      <c r="Q25" s="1">
+        <f t="shared" si="9"/>
+        <v>51.58</v>
+      </c>
+      <c r="R25" s="1">
+        <f>R13*R23</f>
+        <v>0</v>
+      </c>
+      <c r="S25" s="2">
+        <f>SUM(D25:R25)</f>
+        <v>978.62000000000023</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19">
+      <c r="D26" s="1">
+        <f>D13*D24</f>
+        <v>45.88</v>
+      </c>
+      <c r="E26" s="1">
+        <f>E13*E24</f>
+        <v>31.82</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" ref="D26:L26" si="10">F13*F24</f>
+        <v>27.08</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="10"/>
+        <v>29.87</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="10"/>
+        <v>258.75</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="10"/>
+        <v>34.880000000000003</v>
+      </c>
+      <c r="J26" s="1">
+        <f t="shared" si="10"/>
+        <v>64.349999999999994</v>
+      </c>
+      <c r="K26" s="1">
+        <f t="shared" si="10"/>
+        <v>106.94</v>
+      </c>
+      <c r="L26" s="1">
+        <f t="shared" si="10"/>
+        <v>17.21</v>
+      </c>
+      <c r="M26" s="1">
+        <f>M13*M24</f>
+        <v>64.400000000000006</v>
+      </c>
+      <c r="N26" s="1">
+        <f t="shared" ref="N26:Q26" si="11">N13*N24</f>
+        <v>0</v>
+      </c>
+      <c r="O26" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="1">
+        <f t="shared" si="11"/>
+        <v>45.92</v>
+      </c>
+      <c r="Q26" s="1">
+        <f t="shared" si="11"/>
+        <v>40.229999999999997</v>
+      </c>
+      <c r="R26" s="1">
+        <f>R13*R24</f>
+        <v>0</v>
+      </c>
+      <c r="S26" s="2">
+        <f>SUM(D26:R26)</f>
+        <v>767.32999999999993</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19">
+      <c r="S27" s="1">
+        <f>S25-S26</f>
+        <v>211.2900000000003</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="H2:Q2"/>
+    <mergeCell ref="H2:R2"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="B2:B3"/>
